--- a/data/tariffs.xlsx
+++ b/data/tariffs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
   <si>
     <t>Провайдер</t>
   </si>
@@ -36,84 +36,21 @@
     <t>Интернет S</t>
   </si>
   <si>
-    <t>Интернет L</t>
-  </si>
-  <si>
-    <t>Интернет XX:</t>
-  </si>
-  <si>
-    <t>75 Мбит/с</t>
-  </si>
-  <si>
-    <t>100 Мбит/с</t>
-  </si>
-  <si>
-    <t>300 Мбит/с</t>
-  </si>
-  <si>
-    <t>500 р/мес</t>
-  </si>
-  <si>
-    <t>600 р/мес</t>
-  </si>
-  <si>
-    <t>800 р/мес</t>
-  </si>
-  <si>
     <t>Beeline</t>
   </si>
   <si>
     <t>Бомбический</t>
   </si>
   <si>
-    <t>400 р/мес</t>
-  </si>
-  <si>
-    <t>101 Мбит/с</t>
-  </si>
-  <si>
-    <t>Стартовый</t>
-  </si>
-  <si>
-    <t>30 Мбит/с</t>
-  </si>
-  <si>
-    <t>350 р/мес</t>
-  </si>
-  <si>
-    <t>Дома лучше с роутером</t>
-  </si>
-  <si>
     <t>Ростелеком</t>
   </si>
   <si>
     <t>Технологии доступа</t>
   </si>
   <si>
-    <t>490 р/мес</t>
-  </si>
-  <si>
     <t>Двойной интернет</t>
   </si>
   <si>
-    <t>200 Мбит/с</t>
-  </si>
-  <si>
-    <t>550 р/мес</t>
-  </si>
-  <si>
-    <t>Технологии общения</t>
-  </si>
-  <si>
-    <t>Облачный</t>
-  </si>
-  <si>
-    <t>Игровой</t>
-  </si>
-  <si>
-    <t>890 р/мес</t>
-  </si>
-  <si>
     <t>МТС</t>
   </si>
   <si>
@@ -121,18 +58,101 @@
   </si>
   <si>
     <t>Название</t>
+  </si>
+  <si>
+    <t>Интернет XX</t>
+  </si>
+  <si>
+    <t>Стоимость подключения</t>
+  </si>
+  <si>
+    <t>Роутер</t>
+  </si>
+  <si>
+    <t>Wi-Fi роутер TP-LINK Archer C5 в рассрочку на 12 мес.</t>
+  </si>
+  <si>
+    <t>Стоимость роутера</t>
+  </si>
+  <si>
+    <t>Каналы</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>ТВ-приставка</t>
+  </si>
+  <si>
+    <t>Мобильная связь</t>
+  </si>
+  <si>
+    <t>Wi-Fi-роутер Smart Box GIGA</t>
+  </si>
+  <si>
+    <t>Оптический модем с опцией WI-FI</t>
+  </si>
+  <si>
+    <t>Стоимость ТВ-приставки</t>
+  </si>
+  <si>
+    <t>ТВ-приставка Standard</t>
+  </si>
+  <si>
+    <t>Фантастический</t>
+  </si>
+  <si>
+    <t>Скоростной с ТВ</t>
+  </si>
+  <si>
+    <t>Близкие люди 2+</t>
+  </si>
+  <si>
+    <t>Дом.ru L</t>
+  </si>
+  <si>
+    <t>Дом.ru Movix</t>
+  </si>
+  <si>
+    <t>Технологии развлечения</t>
+  </si>
+  <si>
+    <t>Весь МТС</t>
+  </si>
+  <si>
+    <t>Весь МТС Супер</t>
+  </si>
+  <si>
+    <t>HD-приставка</t>
+  </si>
+  <si>
+    <t>Мобильный интернет</t>
+  </si>
+  <si>
+    <t>Безлимит</t>
+  </si>
+  <si>
+    <t>СМС</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -156,8 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -438,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,18 +470,24 @@
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -468,190 +495,569 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>75</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>300</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>800</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
+      </c>
+      <c r="H3">
+        <v>159</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>340</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>800</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>400</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>150</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6">
+        <v>649</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>148</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>250</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>300</v>
+      </c>
+      <c r="L8">
+        <v>700</v>
+      </c>
+      <c r="M8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>490</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>101</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>550</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>101</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10">
+        <v>500</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>600</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>227</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>490</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>60</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>500</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>690</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <v>147</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14">
+        <v>1500</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/tariffs.xlsx
+++ b/data/tariffs.xlsx
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
